--- a/Student_Management/wwwroot/Excel/Marks.xlsx
+++ b/Student_Management/wwwroot/Excel/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STS-USER1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D06831-0CD7-4DB9-B2FD-282E10244E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00A8503-F0C2-4E60-8D12-5BF958F5F3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,19 +322,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row spans="1:9" x14ac:dyDescent="0.2" outlineLevel="0" r="1">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -363,7 +363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row spans="1:9" x14ac:dyDescent="0.2" outlineLevel="0" r="2">
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -385,18 +385,10 @@
       <c r="G2" s="1">
         <v>52</v>
       </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>239</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:9" x14ac:dyDescent="0.2" outlineLevel="0" r="3">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -418,18 +410,9 @@
       <c r="G3" s="1">
         <v>50</v>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:9" x14ac:dyDescent="0.2" outlineLevel="0" r="4">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -451,18 +434,9 @@
       <c r="G4" s="1">
         <v>50</v>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:9" x14ac:dyDescent="0.2" outlineLevel="0" r="5">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -484,18 +458,9 @@
       <c r="G5" s="1">
         <v>50</v>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:9" x14ac:dyDescent="0.2" outlineLevel="0" r="6">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -517,18 +482,9 @@
       <c r="G6" s="1">
         <v>50</v>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:9" x14ac:dyDescent="0.2" outlineLevel="0" r="7">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -550,21 +506,12 @@
       <c r="G7" s="1">
         <v>50</v>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2" outlineLevel="0" r="8">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H8" s="1"/>
     </row>
-    <row spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2" outlineLevel="0" r="9">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H9" s="1"/>
     </row>
   </sheetData>

--- a/Student_Management/wwwroot/Excel/Marks.xlsx
+++ b/Student_Management/wwwroot/Excel/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STS-USER1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00A8503-F0C2-4E60-8D12-5BF958F5F3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE89AE7C-C862-418B-B112-47627361F0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,15 +326,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:H13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -363,7 +363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -371,7 +371,7 @@
         <v>1001</v>
       </c>
       <c r="C2" s="1">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1">
         <v>48</v>
@@ -388,7 +388,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -411,8 +411,9 @@
         <v>50</v>
       </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -435,8 +436,9 @@
         <v>50</v>
       </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -459,8 +461,9 @@
         <v>50</v>
       </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -483,8 +486,9 @@
         <v>50</v>
       </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -507,12 +511,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H9" s="1"/>
+      <c r="I7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
